--- a/财务报表阅读与分析/作业/汾酒财报.xlsx
+++ b/财务报表阅读与分析/作业/汾酒财报.xlsx
@@ -1,26 +1,961 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THU-cuiyf17\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3744A81-A3A9-4775-815B-133069E5CF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="资产负债表" sheetId="1" r:id="rId1"/>
+    <sheet name="利润表" sheetId="2" r:id="rId2"/>
+    <sheet name="现金流量表" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="229">
+  <si>
+    <t>流动资产：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    货币资金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    拆出资金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    交易性金融资产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    衍生金融资产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    应收票据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    应收账款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    应收款项融资</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    预付款项</t>
+  </si>
+  <si>
+    <t>　　其他应收款</t>
+  </si>
+  <si>
+    <t>　　其中：应收利息</t>
+  </si>
+  <si>
+    <t>　　　　  应收股利</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    买入返售金融资产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    存货</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    一年内到期的非流动资产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其他流动资产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    流动资产合计</t>
+  </si>
+  <si>
+    <t>非流动资产：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    发放贷款及垫款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    债权投资</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    可供出售金融资产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其他债权投资</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    持有至到期投资</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    长期应收款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    长期股权投资</t>
+  </si>
+  <si>
+    <t>　  其他权益工具投资</t>
+  </si>
+  <si>
+    <t>　  其他非流动金融资产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    投资性房地产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    固定资产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    在建工程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    工程物资</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    固定资产清理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    生产性生物资产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    油气资产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    无形资产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    开发支出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    商誉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    长期待摊费用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其他长期应收款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    递延所得税资产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其他非流动资产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    非流动资产合计</t>
+  </si>
+  <si>
+    <t>资产总计</t>
+  </si>
+  <si>
+    <t>流动负债：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    短期借款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    向中央银行借款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    吸收存款及同业存放</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    拆入资金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    交易性金融负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    以公允价值计量且其变动计入当期损益的金融负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    衍生金融负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    应付票据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    应付账款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    预收款项</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    卖出回购金融资产款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    代理买卖证券款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    代理承销证券款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    应付职工薪酬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    应交税费</t>
+  </si>
+  <si>
+    <t>　　其他应付款</t>
+  </si>
+  <si>
+    <t>　　其中：应付利息</t>
+  </si>
+  <si>
+    <t>　　　　  应付股利</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    应付手续费及佣金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    应付分保账款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    持有待售负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    一年内到期的非流动负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其他流动负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    流动负债合计</t>
+  </si>
+  <si>
+    <t>非流动负债：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    长期借款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    应付债券</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：优先股</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          永续债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    租赁负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    长期应付款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    长期应付职工薪酬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    预计负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    递延收益</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    递延所得税负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其他非流动负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    非流动负债合计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    负债合计</t>
+  </si>
+  <si>
+    <t>所有者权益(或股东权益)：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    实收资本(或股本)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其他权益工具</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    资本公积金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    减：库存股</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   其他综合收益</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    专项储备</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    盈余公积金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    一般风险准备</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    未分配利润</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    外币报表折算差额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    未确认的投资损失</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    归属于母公司所有者权益合计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    少数股东权益</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    所有者权益合计</t>
+  </si>
+  <si>
+    <t>负债和所有者权益总计</t>
+  </si>
+  <si>
+    <t>审计意见(境内)</t>
+  </si>
+  <si>
+    <t>审计意见(境外)</t>
+  </si>
+  <si>
+    <t>公告日期</t>
+  </si>
+  <si>
+    <t>数据来源</t>
+  </si>
+  <si>
+    <t>核对</t>
+  </si>
+  <si>
+    <t>2020年底</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年底</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年底</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准无保留意见</t>
+  </si>
+  <si>
+    <t>http://quotes.money.163.com/f10/zcfzb_600809.html?type=year</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://quotes.money.163.com/f10/zcfzb_600810.html?type=year</t>
+  </si>
+  <si>
+    <t>http://quotes.money.163.com/f10/zcfzb_600811.html?type=year</t>
+  </si>
+  <si>
+    <t>一、营业总收入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：营业收入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          利息收入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          已赚保费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          手续费及佣金收入</t>
+  </si>
+  <si>
+    <t>二、营业总成本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：营业成本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          利息支出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          手续费及佣金支出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          退保金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          赔付支出净额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          提取保险合同准备金净额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          保单红利支出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          分保费用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          税金及附加</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          销售费用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          管理费用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          研发费用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          财务费用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          其中：利息费用</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>利息收入</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    加：  其他收益</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          投资收益（损失以“-”号填列）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          其中：对联营企业和合营企业的投资收益</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                以摊余成本计量的金融资产终止确认收益</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          公允价值变动净收益（损失以“-”号填列）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          信用减值损失（损失以“-”号填列）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          资产减值损失（损失以“-”号填列）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          资产处置收益（损失以“-”号填列）</t>
+  </si>
+  <si>
+    <t>四、营业利润</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    加：营业外收入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    减：营业外支出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        其中：非流动资产处置净损失</t>
+  </si>
+  <si>
+    <t>五、利润总额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    减：所得税费用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    加：未确认的投资损失</t>
+  </si>
+  <si>
+    <t>六、净利润</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(一)按经营持续性分类</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>持续经营净利润</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.终止经营净利润</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(一)按所有权归属分类</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>少数股东损益</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>归属于母公司所有者的净利润</t>
+    </r>
+  </si>
+  <si>
+    <t>八、每股收益：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    (一) 基本每股收益</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    (二) 稀释每股收益</t>
+  </si>
+  <si>
+    <t>一、经营活动产生的现金流量：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    销售商品、提供劳务收到的现金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    存放中央银行法定准备金款项和同业款项净减少额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    向其他金融机构拆入资金净增加额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    收取利息、手续费及佣金的现金</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拆出资金净减少额</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    拆入资金净增加额</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卖出回购金融资产净增加额</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    客户存款和同业存放款项净增加额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    客户贷款及垫款净减少额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    向中央银行借款净增加额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    收到的税费返还</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    收到其他与经营活动有关的现金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    经营活动现金流入小计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    购买商品、接受劳务支付的现金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    客户贷款及垫款净增加额</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   向中央银行借款净减少额</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    存放中央银行和同业款项净增加额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    拆出资金净增加额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    拆入资金减少额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    客户存款和同业存放款项净减少额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    卖出回购金融资产净减少额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    卖出回购金融资产净增加额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    支付利息、手续费及佣金的现金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    支付给职工以及为职工支付的现金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    支付的各项税费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    支付其他与经营活动有关的现金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    经营活动现金流出小计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    经营活动产生的现金流量净额</t>
+  </si>
+  <si>
+    <t>二、投资活动产生的现金流量：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    收回投资收到的现金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    取得投资收益收到的现金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    处置固定资产、无形资产和其他长期资产收回的现金净额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    处置交易性金融资产收回的现金净额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    收购子公司而导致的现金及现金等价物净增加</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    处置可供出售金融资产收回的现金净额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    子公司转为联营公司核算而导致的现金及现金等价物净增加</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    联营公司转为子公司核算而导致的现金及现金等价物净增加</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    处置子公司及其他营业单位收到的现金净额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    收到其他与投资活动有关的现金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    投资活动现金流入小计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    购建固定资产、无形资产和其他长期资产支付的现金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    投资支付的现金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    取得子公司及其他营业单位支付的现金净额</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子公司及其他营业单位支付的现金净额</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    企业合并导致的现金及现金等价物净减少</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    处置子公司而导致的现金及现金等价物净减少</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    增发收购目标公司而导致的现金及现金等价物净减少</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    增发收购目标资产而导致的现金及现金等价物净减少</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    支付其他与投资活动有关的现金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    投资活动现金流出小计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    投资活动产生的现金流量净额</t>
+  </si>
+  <si>
+    <t>三、筹资活动产生的现金流量：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    发行新股所收到的现金净额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    吸收投资收到的现金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：子公司吸收少数股东投资收到的现金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    取得借款收到的现金</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发行分离交易可转债收到的现金</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   发行债券收到的现金</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    收到其他与筹资活动有关的现金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    筹资活动现金流入小计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    偿还债务支付的现金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    分配股利、利润或偿付利息支付的现金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：子公司支付给少数股东的股利、利润</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    支付罗泾项目收购款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    支付三期资产和部分托管资产收购款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    支付其他与筹资活动有关的现金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    筹资活动现金流出小计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    筹资活动产生的现金流量净额</t>
+  </si>
+  <si>
+    <t>四、汇率变动对现金的影响</t>
+  </si>
+  <si>
+    <t>五、现金及现金等价物净增加额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    加：期初现金及现金等价物余额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    期末现金及现金等价物余额</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +963,109 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,14 +1077,78 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{DD8935E7-EC2C-4A5C-8EAF-89D2D00BAC67}"/>
+    <cellStyle name="常规 3" xfId="1" xr:uid="{6EFA18D2-8BE5-48ED-9916-842886050849}"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +1425,2265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="12"/>
+      <c r="B1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4606710000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3963600000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1296110000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3695300000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1680000</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6230000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10800000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>116690000</v>
+      </c>
+      <c r="C10" s="3">
+        <v>129580000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>103740000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>140780000</v>
+      </c>
+      <c r="C11" s="3">
+        <v>34740000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>34290000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1130000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>33160000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>6353550000</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5258120000</v>
+      </c>
+      <c r="D15">
+        <v>3156050000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>308360000</v>
+      </c>
+      <c r="C17" s="3">
+        <v>522170000</v>
+      </c>
+      <c r="D17">
+        <v>718780000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <f>SUM(B3:B17)-SUM(B12:B13)</f>
+        <v>11527770000</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" ref="C18:D18" si="0">SUM(C3:C17)-SUM(C12:C13)</f>
+        <v>9914440000</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>9015070000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>8810000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>39430000</v>
+      </c>
+      <c r="D26">
+        <v>4280000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3">
+        <v>16030000</v>
+      </c>
+      <c r="C29" s="3">
+        <v>13460000</v>
+      </c>
+      <c r="D29">
+        <v>13920000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <f>(318598-142534)*10000</f>
+        <v>1760640000</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1618610000</v>
+      </c>
+      <c r="D30">
+        <v>1598570000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>527110000</v>
+      </c>
+      <c r="C31">
+        <v>510640000</v>
+      </c>
+      <c r="D31">
+        <v>305800000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1800000</v>
+      </c>
+      <c r="C33">
+        <v>1780000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>338950000</v>
+      </c>
+      <c r="C36">
+        <v>313490000</v>
+      </c>
+      <c r="D36">
+        <v>223240000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>7300000</v>
+      </c>
+      <c r="C39">
+        <v>8580000</v>
+      </c>
+      <c r="D39">
+        <v>9850000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1126830000</v>
+      </c>
+      <c r="C41">
+        <v>833440000</v>
+      </c>
+      <c r="D41">
+        <v>565270000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3">
+        <v>139510000</v>
+      </c>
+      <c r="C42">
+        <v>112550000</v>
+      </c>
+      <c r="D42">
+        <v>83030000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="6">
+        <f>SUM(B20:B42)</f>
+        <v>3957600000</v>
+      </c>
+      <c r="C43" s="6">
+        <f t="shared" ref="C43:D43" si="1">SUM(C20:C42)</f>
+        <v>3412550000</v>
+      </c>
+      <c r="D43" s="6">
+        <f t="shared" si="1"/>
+        <v>2812770000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5">
+        <f>B18+B43</f>
+        <v>15485370000</v>
+      </c>
+      <c r="C44" s="5">
+        <f t="shared" ref="C44:D44" si="2">C18+C43</f>
+        <v>13326990000</v>
+      </c>
+      <c r="D44" s="5">
+        <f t="shared" si="2"/>
+        <v>11827840000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3">
+        <v>856510000</v>
+      </c>
+      <c r="C53" s="3">
+        <v>753770000</v>
+      </c>
+      <c r="D53" s="3">
+        <v>489600000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1454930000</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1973530000</v>
+      </c>
+      <c r="D54" s="3">
+        <v>853990000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="3">
+        <v>2839720000</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1653190000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1068800000</v>
+      </c>
+      <c r="C60" s="3">
+        <v>825620000</v>
+      </c>
+      <c r="D60" s="3">
+        <v>443980000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1795740000</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1169530000</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1278210000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62">
+        <f>SUM(B63:B64)</f>
+        <v>940070000</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62:D62" si="3">SUM(C63:C64)</f>
+        <v>819630000</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="3"/>
+        <v>584540000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63">
+        <f>937630000</f>
+        <v>937630000</v>
+      </c>
+      <c r="C63">
+        <v>812770000</v>
+      </c>
+      <c r="D63">
+        <v>578570000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64">
+        <v>2440000</v>
+      </c>
+      <c r="C64" s="3">
+        <v>6860000</v>
+      </c>
+      <c r="D64" s="3">
+        <v>5970000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="3">
+        <v>403900000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="6">
+        <f>SUM(B46:B69)-SUM(B63:B64)</f>
+        <v>6519950000</v>
+      </c>
+      <c r="C70" s="6">
+        <f t="shared" ref="C70:D70" si="4">SUM(C46:C69)-SUM(C63:C64)</f>
+        <v>8381800000</v>
+      </c>
+      <c r="D70" s="6">
+        <f t="shared" si="4"/>
+        <v>5303510000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="3">
+        <v>28090000</v>
+      </c>
+      <c r="C80" s="3">
+        <v>12050000</v>
+      </c>
+      <c r="D80" s="3">
+        <v>12380000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" s="3">
+        <v>30570000</v>
+      </c>
+      <c r="C81" s="3">
+        <v>15340000</v>
+      </c>
+      <c r="D81" s="3">
+        <v>4460000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" s="6">
+        <f>SUM(B72:B82)-SUM(B74:B75)</f>
+        <v>58660000</v>
+      </c>
+      <c r="C83" s="6">
+        <f t="shared" ref="C83:D83" si="5">SUM(C72:C82)-SUM(C74:C75)</f>
+        <v>27390000</v>
+      </c>
+      <c r="D83" s="6">
+        <f t="shared" si="5"/>
+        <v>16840000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" s="6">
+        <f>B70+B83</f>
+        <v>6578610000</v>
+      </c>
+      <c r="C84" s="6">
+        <f t="shared" ref="C84:D84" si="6">C70+C83</f>
+        <v>8409190000</v>
+      </c>
+      <c r="D84" s="6">
+        <f t="shared" si="6"/>
+        <v>5320350000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" s="3">
+        <v>871530000</v>
+      </c>
+      <c r="C86" s="3">
+        <v>871530000</v>
+      </c>
+      <c r="D86" s="3">
+        <v>865850000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B90" s="3">
+        <v>204080000</v>
+      </c>
+      <c r="C90" s="3">
+        <v>131970000</v>
+      </c>
+      <c r="D90" s="3">
+        <v>282390000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B91" s="3">
+        <v>100140000</v>
+      </c>
+      <c r="C91" s="3">
+        <v>105250000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B93" s="3">
+        <v>90400000</v>
+      </c>
+      <c r="C93" s="3">
+        <v>70060000</v>
+      </c>
+      <c r="D93" s="3">
+        <v>58320000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B94" s="3">
+        <v>419790000</v>
+      </c>
+      <c r="C94" s="3">
+        <v>471790000</v>
+      </c>
+      <c r="D94" s="3">
+        <v>471790000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B96" s="3">
+        <v>8288570000</v>
+      </c>
+      <c r="C96" s="3">
+        <v>6004260000</v>
+      </c>
+      <c r="D96" s="3">
+        <v>4533220000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B99" s="7">
+        <f>SUM(B86:B98)-2*B91</f>
+        <v>9774230000</v>
+      </c>
+      <c r="C99" s="7">
+        <f t="shared" ref="C99:D99" si="7">SUM(C86:C98)-2*C91</f>
+        <v>7444360000</v>
+      </c>
+      <c r="D99" s="7">
+        <f t="shared" si="7"/>
+        <v>6211570000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B100" s="3">
+        <v>287980000</v>
+      </c>
+      <c r="C100" s="3">
+        <v>177640000</v>
+      </c>
+      <c r="D100" s="3">
+        <v>267450000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B101" s="2">
+        <f>SUM(B99:B100)</f>
+        <v>10062210000</v>
+      </c>
+      <c r="C101" s="2">
+        <f t="shared" ref="C101:D101" si="8">SUM(C99:C100)</f>
+        <v>7622000000</v>
+      </c>
+      <c r="D101" s="2">
+        <f t="shared" si="8"/>
+        <v>6479020000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B102" s="2">
+        <f>B84+B101</f>
+        <v>16640820000</v>
+      </c>
+      <c r="C102" s="2">
+        <f t="shared" ref="C102:D102" si="9">C84+C101</f>
+        <v>16031190000</v>
+      </c>
+      <c r="D102" s="2">
+        <f t="shared" si="9"/>
+        <v>11799370000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B108" s="2">
+        <v>0</v>
+      </c>
+      <c r="C108" s="2">
+        <v>0</v>
+      </c>
+      <c r="D108" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B106" r:id="rId1" xr:uid="{E065BFD1-5CBE-4C08-A749-FED7A2CB548F}"/>
+    <hyperlink ref="C106:D106" r:id="rId2" display="http://quotes.money.163.com/f10/zcfzb_600809.html?type=year" xr:uid="{2A4076B4-1137-456B-9C75-A75BCD44FF29}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C214B23B-D4C5-4F03-996F-AF97E979C110}">
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="58.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="12"/>
+      <c r="B1" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="7">
+        <f>SUM(B3:B6)</f>
+        <v>13989800000</v>
+      </c>
+      <c r="C2" s="7">
+        <f t="shared" ref="C2:D2" si="0">SUM(C3:C6)</f>
+        <v>11880070000</v>
+      </c>
+      <c r="D2" s="7">
+        <f t="shared" si="0"/>
+        <v>9381940000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="3">
+        <v>13989800000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>11880070000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>9381940000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="10">
+        <f>SUM(B8:B20)</f>
+        <v>9712710000</v>
+      </c>
+      <c r="C7" s="10">
+        <f t="shared" ref="C7:D7" si="1">SUM(C8:C20)</f>
+        <v>8945330000</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" si="1"/>
+        <v>7205640000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3895510000</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3335710000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3169830000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2503310000</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2253370000</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1795590000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2276160000</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2581290000</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1626980000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1089080000</v>
+      </c>
+      <c r="C18" s="3">
+        <v>855400000</v>
+      </c>
+      <c r="D18" s="3">
+        <v>628430000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="3">
+        <v>16670000</v>
+      </c>
+      <c r="C19" s="3">
+        <v>22250000</v>
+      </c>
+      <c r="D19" s="3">
+        <v>12150000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="3">
+        <v>-68020000</v>
+      </c>
+      <c r="C20" s="3">
+        <v>-102690000</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-27340000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="3">
+        <f>SUM(B25:B26)</f>
+        <v>-48780000</v>
+      </c>
+      <c r="C24" s="3">
+        <v>-97800000</v>
+      </c>
+      <c r="D24" s="3">
+        <f>SUM(D25:D26)</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="3">
+        <v>-57</v>
+      </c>
+      <c r="D25">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26">
+        <v>-48779943</v>
+      </c>
+      <c r="D26" s="3">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2210000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="10">
+        <f>B2-B7+SUM(B23:B30)-SUM(B25:B26)</f>
+        <v>4228310000</v>
+      </c>
+      <c r="C31" s="10">
+        <f t="shared" ref="C31:D31" si="2">C2-C7+SUM(C23:C30)-SUM(C25:C26)</f>
+        <v>2836940000</v>
+      </c>
+      <c r="D31" s="10">
+        <f t="shared" si="2"/>
+        <v>2179510000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="3">
+        <v>5520000</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3120000</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1160000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="3">
+        <v>3780000</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1440000</v>
+      </c>
+      <c r="D33" s="3">
+        <v>3760000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="10">
+        <f>B31+B32-B33</f>
+        <v>4230050000</v>
+      </c>
+      <c r="C35" s="10">
+        <f t="shared" ref="C35:D35" si="3">C31+C32-C33</f>
+        <v>2838620000</v>
+      </c>
+      <c r="D35" s="10">
+        <f t="shared" si="3"/>
+        <v>2176910000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="3">
+        <v>112075</v>
+      </c>
+      <c r="C36" s="3">
+        <v>791530000</v>
+      </c>
+      <c r="D36" s="3">
+        <v>614530000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="10">
+        <f>B35-B36+B37</f>
+        <v>4229937925</v>
+      </c>
+      <c r="C38" s="10">
+        <f t="shared" ref="C38:D38" si="4">C35-C36+C37</f>
+        <v>2047090000</v>
+      </c>
+      <c r="D38" s="10">
+        <f t="shared" si="4"/>
+        <v>1562380000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" s="3">
+        <v>36630000</v>
+      </c>
+      <c r="C43" s="3">
+        <v>115070000</v>
+      </c>
+      <c r="D43" s="3">
+        <v>93160000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="3">
+        <v>3079230000</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1938510000</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1466730000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="7">
+        <v>3.55</v>
+      </c>
+      <c r="C46" s="7">
+        <v>2.23</v>
+      </c>
+      <c r="D46" s="7">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47" s="7">
+        <v>3.54</v>
+      </c>
+      <c r="C47" s="7">
+        <v>2.23</v>
+      </c>
+      <c r="D47" s="7">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DD12B2-0FB0-4F48-94CD-E852CD808F9E}">
+  <dimension ref="A1:D80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="62.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="12"/>
+      <c r="B1" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="19">
+        <v>13594920000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>13463150000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>8694380000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="18"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="18"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="18"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="18"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="18"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="18"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="18"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="18"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="18"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="19">
+        <v>24170000</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2140000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="19">
+        <v>139810000</v>
+      </c>
+      <c r="C14" s="3">
+        <v>63320000</v>
+      </c>
+      <c r="D14" s="3">
+        <v>139670000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="20">
+        <f>SUM(B3:B14)</f>
+        <v>13758900000</v>
+      </c>
+      <c r="C15" s="20">
+        <f t="shared" ref="C15:D15" si="0">SUM(C3:C14)</f>
+        <v>13528610000</v>
+      </c>
+      <c r="D15" s="20">
+        <f t="shared" si="0"/>
+        <v>8834050000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="19">
+        <v>4148950000</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3463370000</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3211460000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="18"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="18"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="18"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="18"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="18"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="18"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="18"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" s="18"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" s="19">
+        <v>2197860000</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1462370000</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1235520000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="19">
+        <v>4733990000</v>
+      </c>
+      <c r="C27" s="3">
+        <v>4645670000</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2837980000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" s="19">
+        <v>668280000</v>
+      </c>
+      <c r="C28" s="3">
+        <v>880640000</v>
+      </c>
+      <c r="D28" s="3">
+        <v>583160000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="20">
+        <f>SUM(B16:B28)</f>
+        <v>11749080000</v>
+      </c>
+      <c r="C29" s="20">
+        <f t="shared" ref="C29:D29" si="1">SUM(C16:C28)</f>
+        <v>10452050000</v>
+      </c>
+      <c r="D29" s="20">
+        <f t="shared" si="1"/>
+        <v>7868120000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="21">
+        <f>B15-B29</f>
+        <v>2009820000</v>
+      </c>
+      <c r="C30" s="21">
+        <f t="shared" ref="C30:D30" si="2">C15-C29</f>
+        <v>3076560000</v>
+      </c>
+      <c r="D30" s="21">
+        <f t="shared" si="2"/>
+        <v>965930000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" s="18"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" s="3">
+        <v>5168700000</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1412500000</v>
+      </c>
+      <c r="D32" s="3">
+        <v>47370000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" s="3">
+        <v>50100000</v>
+      </c>
+      <c r="C33" s="3">
+        <v>92850000</v>
+      </c>
+      <c r="D33" s="3">
+        <v>23820000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="3">
+        <v>420000</v>
+      </c>
+      <c r="C34" s="3">
+        <v>21000000</v>
+      </c>
+      <c r="D34" s="3">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" s="18"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B36" s="18"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37" s="18"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" s="18"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="18"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" s="18"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="3">
+        <v>8070000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B42" s="20">
+        <f>SUM(B32:B41)</f>
+        <v>5219220000</v>
+      </c>
+      <c r="C42" s="20">
+        <f t="shared" ref="C42:D42" si="3">SUM(C32:C41)</f>
+        <v>1534420000</v>
+      </c>
+      <c r="D42" s="20">
+        <f t="shared" si="3"/>
+        <v>71370000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B43" s="3">
+        <v>195820000</v>
+      </c>
+      <c r="C43" s="3">
+        <v>161260000</v>
+      </c>
+      <c r="D43" s="3">
+        <v>75070000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" s="3">
+        <v>5763200000</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1341450000</v>
+      </c>
+      <c r="D44" s="3">
+        <v>357250000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B45" s="18"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B46" s="18"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B47" s="18"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" s="18"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B49" s="18"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B50" s="18"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B51" s="18"/>
+      <c r="C51" s="3">
+        <v>3540000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B52" s="20">
+        <f>SUM(B43:B51)</f>
+        <v>5959020000</v>
+      </c>
+      <c r="C52" s="20">
+        <f t="shared" ref="C52:D52" si="4">SUM(C43:C51)</f>
+        <v>1506250000</v>
+      </c>
+      <c r="D52" s="20">
+        <f t="shared" si="4"/>
+        <v>432320000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B53" s="21">
+        <f>B42-B52</f>
+        <v>-739800000</v>
+      </c>
+      <c r="C53" s="21">
+        <f t="shared" ref="C53:D53" si="5">C42-C52</f>
+        <v>28170000</v>
+      </c>
+      <c r="D53" s="21">
+        <f t="shared" si="5"/>
+        <v>-360950000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B54" s="18"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B55" s="18"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B56" s="18"/>
+      <c r="C56" s="3">
+        <v>109510000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B57" s="18"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B58" s="18"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B59" s="18"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B60" s="18"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B61" s="18"/>
+      <c r="C61" s="3">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B62" s="20">
+        <f>SUM(B55:B61)</f>
+        <v>0</v>
+      </c>
+      <c r="C62" s="20">
+        <f t="shared" ref="C62:D62" si="6">SUM(C55:C61)</f>
+        <v>119510000</v>
+      </c>
+      <c r="D62" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B63" s="18"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B64" s="3">
+        <v>789850000</v>
+      </c>
+      <c r="C64" s="3">
+        <v>641230000</v>
+      </c>
+      <c r="D64" s="3">
+        <v>560410000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B65" s="18"/>
+      <c r="C65" s="3">
+        <v>9240000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B66" s="18"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B67" s="18"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B68" s="3">
+        <v>579550000</v>
+      </c>
+      <c r="C68" s="3">
+        <v>325340000</v>
+      </c>
+      <c r="D68" s="3">
+        <v>215150000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B69" s="20">
+        <f>SUM(B63:B68)-B65</f>
+        <v>1369400000</v>
+      </c>
+      <c r="C69" s="20">
+        <f>SUM(C63:C68)-C65</f>
+        <v>966570000</v>
+      </c>
+      <c r="D69" s="20">
+        <f>SUM(D63:D68)-D65</f>
+        <v>775560000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B70" s="21">
+        <f>B62-B69</f>
+        <v>-1369400000</v>
+      </c>
+      <c r="C70" s="21">
+        <f>C62-C69</f>
+        <v>-847060000</v>
+      </c>
+      <c r="D70" s="21">
+        <f>D62-D69</f>
+        <v>-775560000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B71" s="22">
+        <v>-1200000</v>
+      </c>
+      <c r="C71" s="22">
+        <v>90000</v>
+      </c>
+      <c r="D71" s="22"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B72" s="21">
+        <f>B30+B53+B70+B71</f>
+        <v>-100580000</v>
+      </c>
+      <c r="C72" s="21">
+        <f t="shared" ref="C72:D72" si="7">C30+C53+C70+C71</f>
+        <v>2257760000</v>
+      </c>
+      <c r="D72" s="21">
+        <f t="shared" si="7"/>
+        <v>-170580000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B73" s="3">
+        <v>3467790000</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1204210000</v>
+      </c>
+      <c r="D73" s="3">
+        <v>1259290000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B74" s="3">
+        <f>B72+B73</f>
+        <v>3367210000</v>
+      </c>
+      <c r="C74" s="3">
+        <f t="shared" ref="C74:D74" si="8">C72+C73</f>
+        <v>3461970000</v>
+      </c>
+      <c r="D74" s="3">
+        <f t="shared" si="8"/>
+        <v>1088710000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="12"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="12"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="12"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="12"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>